--- a/哥本哈根开发进度表.xlsx
+++ b/哥本哈根开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="项目开发计划表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>任务名称</t>
   </si>
@@ -305,12 +305,24 @@
     <t>马浩</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>1课时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>半课时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>半课时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -632,6 +644,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,9 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,39 +1037,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1">
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1101,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1099,10 +1111,12 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" ht="41.1" customHeight="1">
+      <c r="D5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1112,10 +1126,12 @@
       <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1">
+      <c r="D6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1125,10 +1141,12 @@
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1">
+      <c r="D7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1161,8 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1154,9 +1172,9 @@
         <v>47</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>59</v>
       </c>
@@ -1167,9 +1185,9 @@
         <v>47</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1">
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>60</v>
       </c>
@@ -1180,9 +1198,9 @@
         <v>47</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1">
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1213,7 @@
       <c r="D12" s="22"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1226,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -1221,7 +1239,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1252,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>51</v>
       </c>
@@ -1247,7 +1265,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -1260,7 +1278,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1291,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5" customHeight="1">
+    <row r="19" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1304,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1">
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -1299,7 +1317,7 @@
       <c r="D20" s="22"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
@@ -1324,30 +1342,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.95" customHeight="1">
+    <row r="4" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1403,59 +1421,59 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
@@ -1471,61 +1489,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
